--- a/biology/Histoire de la zoologie et de la botanique/Muséum_Henri-Lecoq/Muséum_Henri-Lecoq.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum_Henri-Lecoq/Muséum_Henri-Lecoq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_Henri-Lecoq</t>
+          <t>Muséum_Henri-Lecoq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muséum Henri-Lecoq est un musée d'histoire naturelle fondé en 1873 et situé à Clermont-Ferrand dans le Puy-de-Dôme. Il porte le nom du naturaliste Henri Lecoq, dont le legs à la ville de Clermont-Ferrand forma la base des collections du musée. On y trouve de riches collections dans différents domaines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_Henri-Lecoq</t>
+          <t>Muséum_Henri-Lecoq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce musée a été officiellement inauguré en 1873. Henri Lecoq légua sa collection à la ville de Clermont-Ferrand qui, achetant son hôtel particulier, en fit un musée.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_Henri-Lecoq</t>
+          <t>Muséum_Henri-Lecoq</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,38 +558,217 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Botanique
-Le département de botanique conserve plus de 200 000 représentants du monde végétal[2], avec en particulier :
-un herbier constitué de plus de 150 000 parts, dont l'herbier Lecoq[3]
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département de botanique conserve plus de 200 000 représentants du monde végétal, avec en particulier :
+un herbier constitué de plus de 150 000 parts, dont l'herbier Lecoq
 une collection de graines
 une collection de pollens
 des modèles de poires en plâtre du XIXe siècle et de modèles de champignons
-L'herbier du musée Lecoq est conservé avec les herbiers universitaires de Clermont-Ferrand, qui comprennent plus de 430 000 parts et représentent la 3e collection universitaire française et la 4e collection nationale[4].Ces herbiers ne sont pas accessibles au public.
-Géologie
-Le muséum Henri-Lecoq possède une grande collection de roches et de minéraux, dont une collection de roches volcaniques de la région, et une collection de pierres précieuses et semi-précieuses.
+L'herbier du musée Lecoq est conservé avec les herbiers universitaires de Clermont-Ferrand, qui comprennent plus de 430 000 parts et représentent la 3e collection universitaire française et la 4e collection nationale.Ces herbiers ne sont pas accessibles au public.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muséum_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muséum Henri-Lecoq possède une grande collection de roches et de minéraux, dont une collection de roches volcaniques de la région, et une collection de pierres précieuses et semi-précieuses.
 			Améthyste.
 			Aragonite.
 			Calcite.
 			Dépôt cristaux d'hématite sur trachyte.
 			Hématite sur trachyte.
 			Météorite de Gibeon.
-Paléontologie
-Le musée dispose d'une collection de fossiles, de la région et d'ailleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muséum_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée dispose d'une collection de fossiles, de la région et d'ailleurs.
 			Reconstitution d'Anthracotherium.
 			Crâne de tigre à dents de sabre.
 			Reconstitution de Dicerathierium.
 			Squelette de canard de Blanchard.
 			Reconstitution de Meganeura.
 			Reconstitution de hyaenodon.
-Zoologie
-Le musée possède dans ses collections plus de 300 000 représentants du monde animal d'Auvergne et d'ailleurs, avec en particulier[5] : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muséum_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le musée possède dans ses collections plus de 300 000 représentants du monde animal d'Auvergne et d'ailleurs, avec en particulier : 
 de nombreux animaux naturalisés et présentés dans leur habitat naturel dans les salles du musée, pour les vertébrés
-environ 200 000 insectes dans les collections, dont celle léguée par le coléoptériste Henri Venet (62 000 spécimens du paléarctique). Elle contient de façon insolite un spécimen du coléoptère endémique d'Auvergne légendaire, Aphodius arvernicus, qui s'avère être une supercherie scientifique[6].
-une collection de malacologie d’environ 100 000 coquilles. Le Muséum d'histoire naturelle conserve la collection de Pierre-Louis Duclos, acquise en 1854 par Henri Lecoq, constituée de 80 000 spécimens provenant du monde entier et représentant tous les groupes de mollusques.
-Histoire des sciences et techniques
-Le musée rassemble des collections d'instruments scientifiques et techniques ayant fait partie de collections de grands savants.Le musée conserve notamment une pascaline inventée par Blaise Pascal qui fut la première machine de l'histoire du calcul mécanique[7] ainsi que la seule machine à calculer opérationnelle au XVIIe siècle[8].
-Patrimoine écrit et graphiques
-Le muséum possède et présente dans ses expositions des ouvrages historiques, des planches, des cartes et des archives.
+environ 200 000 insectes dans les collections, dont celle léguée par le coléoptériste Henri Venet (62 000 spécimens du paléarctique). Elle contient de façon insolite un spécimen du coléoptère endémique d'Auvergne légendaire, Aphodius arvernicus, qui s'avère être une supercherie scientifique.
+une collection de malacologie d’environ 100 000 coquilles. Le Muséum d'histoire naturelle conserve la collection de Pierre-Louis Duclos, acquise en 1854 par Henri Lecoq, constituée de 80 000 spécimens provenant du monde entier et représentant tous les groupes de mollusques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muséum_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Histoire des sciences et techniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée rassemble des collections d'instruments scientifiques et techniques ayant fait partie de collections de grands savants.Le musée conserve notamment une pascaline inventée par Blaise Pascal qui fut la première machine de l'histoire du calcul mécanique ainsi que la seule machine à calculer opérationnelle au XVIIe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muséum_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Patrimoine écrit et graphiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muséum possède et présente dans ses expositions des ouvrages historiques, des planches, des cartes et des archives.
 			Otarie du jardin Lecoq naturalisée.
 			Salle consacrée à Henri Lecoq.
 			Machine de Marguerite Périer (pascaline)
@@ -584,65 +777,69 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_Henri-Lecoq</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muséum_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Fréquentation du musée[9]
+Fréquentation du musée
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_Henri-Lecoq</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muséum_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_Henri-Lecoq</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications du musée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2014 : Patrick Prugne, Thibault Prugne, Jérémy Cappana, Boris Sabatier et Laurent Bordier, Lecoq en bulles, éditions du muséum Henri-Lecoq. Présentation de la vie et de l'œuvre d'Henri Lecoq et des collections du musée par cinq illustrateurs (ouvrage publié pour accompagner l'exposition du même nom pendant la Nuit Européenne des Musées 2014)[10],[11].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2014 : Patrick Prugne, Thibault Prugne, Jérémy Cappana, Boris Sabatier et Laurent Bordier, Lecoq en bulles, éditions du muséum Henri-Lecoq. Présentation de la vie et de l'œuvre d'Henri Lecoq et des collections du musée par cinq illustrateurs (ouvrage publié pour accompagner l'exposition du même nom pendant la Nuit Européenne des Musées 2014),.
 2017 : collectif, illustré par Fabienne Cinquin, Mission catiche !, co-édition du muséum Henri-Lecoq et de La poule qui pond édition. Ouvrage jeunesse sur les loutres et les animaux sauvages de la campagne.</t>
         </is>
       </c>
